--- a/doc/game-config/item.xlsx
+++ b/doc/game-config/item.xlsx
@@ -166,7 +166,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="138">
   <si>
     <t>道具ID</t>
   </si>
@@ -436,6 +436,150 @@
   </si>
   <si>
     <t>item_10101030</t>
+  </si>
+  <si>
+    <t>Painting</t>
+  </si>
+  <si>
+    <t>item_10101031</t>
+  </si>
+  <si>
+    <t>Soda</t>
+  </si>
+  <si>
+    <t>item_10101032</t>
+  </si>
+  <si>
+    <t>Brush</t>
+  </si>
+  <si>
+    <t>item_10101033</t>
+  </si>
+  <si>
+    <t>T-Shirt</t>
+  </si>
+  <si>
+    <t>item_10101034</t>
+  </si>
+  <si>
+    <t>Fruit</t>
+  </si>
+  <si>
+    <t>item_10101035</t>
+  </si>
+  <si>
+    <t>Coffee</t>
+  </si>
+  <si>
+    <t>item_10101036</t>
+  </si>
+  <si>
+    <t>Menu</t>
+  </si>
+  <si>
+    <t>item_10101037</t>
+  </si>
+  <si>
+    <t>Cake</t>
+  </si>
+  <si>
+    <t>item_10101038</t>
+  </si>
+  <si>
+    <t>Book</t>
+  </si>
+  <si>
+    <t>item_10101039</t>
+  </si>
+  <si>
+    <t>Watch</t>
+  </si>
+  <si>
+    <t>item_10101040</t>
+  </si>
+  <si>
+    <t>Suit</t>
+  </si>
+  <si>
+    <t>item_10101041</t>
+  </si>
+  <si>
+    <t>Computer</t>
+  </si>
+  <si>
+    <t>item_10101042</t>
+  </si>
+  <si>
+    <t>Phone holder</t>
+  </si>
+  <si>
+    <t>item_10101043</t>
+  </si>
+  <si>
+    <t>Handbag</t>
+  </si>
+  <si>
+    <t>item_10101044</t>
+  </si>
+  <si>
+    <t>Teddy bear</t>
+  </si>
+  <si>
+    <t>item_10101045</t>
+  </si>
+  <si>
+    <t>Cosmetics</t>
+  </si>
+  <si>
+    <t>item_10101046</t>
+  </si>
+  <si>
+    <t>Specimen</t>
+  </si>
+  <si>
+    <t>item_10101047</t>
+  </si>
+  <si>
+    <t>Sunflower</t>
+  </si>
+  <si>
+    <t>item_10101048</t>
+  </si>
+  <si>
+    <t>Toolbox</t>
+  </si>
+  <si>
+    <t>item_10101049</t>
+  </si>
+  <si>
+    <t>Potted plant</t>
+  </si>
+  <si>
+    <t>item_10101050</t>
+  </si>
+  <si>
+    <t>Backpack</t>
+  </si>
+  <si>
+    <t>item_10101051</t>
+  </si>
+  <si>
+    <t>Sneakers</t>
+  </si>
+  <si>
+    <t>item_10101052</t>
+  </si>
+  <si>
+    <t>Dumbbell</t>
+  </si>
+  <si>
+    <t>item_10101053</t>
+  </si>
+  <si>
+    <t>Trophy</t>
+  </si>
+  <si>
+    <t>item_10101054</t>
   </si>
 </sst>
 </file>
@@ -448,7 +592,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -474,6 +618,18 @@
     </font>
     <font>
       <sz val="10"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9.75"/>
       <color theme="1"/>
       <name val="Tahoma"/>
       <charset val="134"/>
@@ -630,11 +786,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
@@ -642,6 +793,11 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="16"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -1003,28 +1159,19 @@
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1033,125 +1180,134 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1189,8 +1345,23 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -1555,10 +1726,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="I61" sqref="I61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58333333333333" defaultRowHeight="14.25"/>
@@ -2036,10 +2207,10 @@
       <c r="B16" s="8">
         <v>10101012</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="13" t="s">
         <v>52</v>
       </c>
       <c r="E16" s="9">
@@ -2066,10 +2237,10 @@
       <c r="B17" s="8">
         <v>10101013</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="13" t="s">
         <v>54</v>
       </c>
       <c r="E17" s="9">
@@ -2096,10 +2267,10 @@
       <c r="B18" s="8">
         <v>10101014</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="13" t="s">
         <v>56</v>
       </c>
       <c r="E18" s="9">
@@ -2126,10 +2297,10 @@
       <c r="B19" s="8">
         <v>10101015</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D19" s="13" t="s">
         <v>58</v>
       </c>
       <c r="E19" s="9">
@@ -2156,10 +2327,10 @@
       <c r="B20" s="8">
         <v>10101016</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="13" t="s">
         <v>60</v>
       </c>
       <c r="E20" s="9">
@@ -2186,10 +2357,10 @@
       <c r="B21" s="8">
         <v>10101017</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="13" t="s">
         <v>62</v>
       </c>
       <c r="E21" s="9">
@@ -2216,10 +2387,10 @@
       <c r="B22" s="8">
         <v>10101018</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="D22" s="13" t="s">
         <v>64</v>
       </c>
       <c r="E22" s="9">
@@ -2246,10 +2417,10 @@
       <c r="B23" s="8">
         <v>10101019</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D23" s="13" t="s">
         <v>66</v>
       </c>
       <c r="E23" s="9">
@@ -2276,10 +2447,10 @@
       <c r="B24" s="8">
         <v>10101020</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="D24" s="13" t="s">
         <v>68</v>
       </c>
       <c r="E24" s="9">
@@ -2306,10 +2477,10 @@
       <c r="B25" s="8">
         <v>10101021</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C25" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="13" t="s">
         <v>70</v>
       </c>
       <c r="E25" s="9">
@@ -2336,10 +2507,10 @@
       <c r="B26" s="8">
         <v>10101022</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C26" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="D26" s="13" t="s">
         <v>72</v>
       </c>
       <c r="E26" s="9">
@@ -2366,10 +2537,10 @@
       <c r="B27" s="8">
         <v>10101023</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C27" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="D27" s="13" t="s">
         <v>74</v>
       </c>
       <c r="E27" s="9">
@@ -2396,10 +2567,10 @@
       <c r="B28" s="8">
         <v>10101024</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C28" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="D28" s="12" t="s">
+      <c r="D28" s="13" t="s">
         <v>76</v>
       </c>
       <c r="E28" s="9">
@@ -2426,10 +2597,10 @@
       <c r="B29" s="8">
         <v>10101025</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C29" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="D29" s="12" t="s">
+      <c r="D29" s="13" t="s">
         <v>78</v>
       </c>
       <c r="E29" s="9">
@@ -2456,10 +2627,10 @@
       <c r="B30" s="8">
         <v>10101026</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C30" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="D30" s="12" t="s">
+      <c r="D30" s="13" t="s">
         <v>80</v>
       </c>
       <c r="E30" s="9">
@@ -2486,10 +2657,10 @@
       <c r="B31" s="8">
         <v>10101027</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="C31" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="D31" s="12" t="s">
+      <c r="D31" s="13" t="s">
         <v>82</v>
       </c>
       <c r="E31" s="9">
@@ -2516,10 +2687,10 @@
       <c r="B32" s="8">
         <v>10101028</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="C32" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="D32" s="12" t="s">
+      <c r="D32" s="13" t="s">
         <v>84</v>
       </c>
       <c r="E32" s="9">
@@ -2599,15 +2770,735 @@
         <v>10015</v>
       </c>
     </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B35" s="8">
+        <v>10101031</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="E35" s="9">
+        <v>2</v>
+      </c>
+      <c r="F35" s="9">
+        <v>1</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="H35" s="15"/>
+      <c r="I35" s="2">
+        <v>1</v>
+      </c>
+      <c r="J35" s="18">
+        <v>10016</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B36" s="8">
+        <v>10101032</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="D36" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="E36" s="9">
+        <v>2</v>
+      </c>
+      <c r="F36" s="9">
+        <v>1</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="H36" s="15"/>
+      <c r="I36" s="2">
+        <v>1</v>
+      </c>
+      <c r="J36" s="18">
+        <v>10016</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B37" s="8">
+        <v>10101033</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E37" s="9">
+        <v>2</v>
+      </c>
+      <c r="F37" s="9">
+        <v>1</v>
+      </c>
+      <c r="G37" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="H37" s="15"/>
+      <c r="I37" s="2">
+        <v>1</v>
+      </c>
+      <c r="J37" s="18">
+        <v>10016</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B38" s="8">
+        <v>10101034</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="E38" s="9">
+        <v>2</v>
+      </c>
+      <c r="F38" s="9">
+        <v>1</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="H38" s="15"/>
+      <c r="I38" s="2">
+        <v>1</v>
+      </c>
+      <c r="J38" s="18">
+        <v>10016</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B39" s="8">
+        <v>10101035</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="E39" s="9">
+        <v>2</v>
+      </c>
+      <c r="F39" s="9">
+        <v>1</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="H39" s="15"/>
+      <c r="I39" s="2">
+        <v>1</v>
+      </c>
+      <c r="J39" s="18">
+        <v>10017</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B40" s="8">
+        <v>10101036</v>
+      </c>
+      <c r="C40" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="E40" s="9">
+        <v>2</v>
+      </c>
+      <c r="F40" s="9">
+        <v>1</v>
+      </c>
+      <c r="G40" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="H40" s="15"/>
+      <c r="I40" s="2">
+        <v>1</v>
+      </c>
+      <c r="J40" s="18">
+        <v>10017</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B41" s="8">
+        <v>10101037</v>
+      </c>
+      <c r="C41" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E41" s="9">
+        <v>2</v>
+      </c>
+      <c r="F41" s="9">
+        <v>1</v>
+      </c>
+      <c r="G41" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="H41" s="15"/>
+      <c r="I41" s="2">
+        <v>1</v>
+      </c>
+      <c r="J41" s="18">
+        <v>10017</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B42" s="8">
+        <v>10101038</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="D42" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="E42" s="9">
+        <v>2</v>
+      </c>
+      <c r="F42" s="9">
+        <v>1</v>
+      </c>
+      <c r="G42" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="H42" s="15"/>
+      <c r="I42" s="2">
+        <v>1</v>
+      </c>
+      <c r="J42" s="18">
+        <v>10017</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B43" s="8">
+        <v>10101039</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="D43" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="E43" s="9">
+        <v>2</v>
+      </c>
+      <c r="F43" s="9">
+        <v>1</v>
+      </c>
+      <c r="G43" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="H43" s="15"/>
+      <c r="I43" s="2">
+        <v>1</v>
+      </c>
+      <c r="J43" s="18">
+        <v>10018</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B44" s="8">
+        <v>10101040</v>
+      </c>
+      <c r="C44" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="E44" s="9">
+        <v>2</v>
+      </c>
+      <c r="F44" s="9">
+        <v>1</v>
+      </c>
+      <c r="G44" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="H44" s="15"/>
+      <c r="I44" s="2">
+        <v>1</v>
+      </c>
+      <c r="J44" s="18">
+        <v>10018</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B45" s="8">
+        <v>10101041</v>
+      </c>
+      <c r="C45" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="D45" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="E45" s="9">
+        <v>2</v>
+      </c>
+      <c r="F45" s="9">
+        <v>1</v>
+      </c>
+      <c r="G45" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="H45" s="15"/>
+      <c r="I45" s="2">
+        <v>1</v>
+      </c>
+      <c r="J45" s="18">
+        <v>10018</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B46" s="8">
+        <v>10101042</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D46" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="E46" s="9">
+        <v>2</v>
+      </c>
+      <c r="F46" s="9">
+        <v>1</v>
+      </c>
+      <c r="G46" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="H46" s="15"/>
+      <c r="I46" s="2">
+        <v>1</v>
+      </c>
+      <c r="J46" s="18">
+        <v>10018</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B47" s="8">
+        <v>10101043</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="D47" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="E47" s="9">
+        <v>2</v>
+      </c>
+      <c r="F47" s="9">
+        <v>1</v>
+      </c>
+      <c r="G47" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="H47" s="15"/>
+      <c r="I47" s="2">
+        <v>1</v>
+      </c>
+      <c r="J47" s="18">
+        <v>10019</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B48" s="8">
+        <v>10101044</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="D48" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="E48" s="9">
+        <v>2</v>
+      </c>
+      <c r="F48" s="9">
+        <v>1</v>
+      </c>
+      <c r="G48" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="H48" s="15"/>
+      <c r="I48" s="2">
+        <v>1</v>
+      </c>
+      <c r="J48" s="15">
+        <v>10019</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B49" s="8">
+        <v>10101045</v>
+      </c>
+      <c r="C49" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="D49" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="E49" s="9">
+        <v>2</v>
+      </c>
+      <c r="F49" s="9">
+        <v>1</v>
+      </c>
+      <c r="G49" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="H49" s="15"/>
+      <c r="I49" s="2">
+        <v>1</v>
+      </c>
+      <c r="J49" s="15">
+        <v>10019</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B50" s="8">
+        <v>10101046</v>
+      </c>
+      <c r="C50" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="D50" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="E50" s="9">
+        <v>2</v>
+      </c>
+      <c r="F50" s="9">
+        <v>1</v>
+      </c>
+      <c r="G50" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="H50" s="15"/>
+      <c r="I50" s="2">
+        <v>1</v>
+      </c>
+      <c r="J50" s="15">
+        <v>10019</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B51" s="8">
+        <v>10101047</v>
+      </c>
+      <c r="C51" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="D51" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="E51" s="9">
+        <v>2</v>
+      </c>
+      <c r="F51" s="9">
+        <v>1</v>
+      </c>
+      <c r="G51" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="H51" s="15"/>
+      <c r="I51" s="2">
+        <v>1</v>
+      </c>
+      <c r="J51" s="15">
+        <v>10020</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B52" s="8">
+        <v>10101048</v>
+      </c>
+      <c r="C52" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="D52" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="E52" s="9">
+        <v>2</v>
+      </c>
+      <c r="F52" s="9">
+        <v>1</v>
+      </c>
+      <c r="G52" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="H52" s="15"/>
+      <c r="I52" s="2">
+        <v>1</v>
+      </c>
+      <c r="J52" s="15">
+        <v>10020</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B53" s="8">
+        <v>10101049</v>
+      </c>
+      <c r="C53" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="D53" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="E53" s="9">
+        <v>2</v>
+      </c>
+      <c r="F53" s="9">
+        <v>1</v>
+      </c>
+      <c r="G53" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="H53" s="15"/>
+      <c r="I53" s="2">
+        <v>1</v>
+      </c>
+      <c r="J53" s="15">
+        <v>10020</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B54" s="8">
+        <v>10101050</v>
+      </c>
+      <c r="C54" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="D54" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="E54" s="9">
+        <v>2</v>
+      </c>
+      <c r="F54" s="9">
+        <v>1</v>
+      </c>
+      <c r="G54" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="H54" s="15"/>
+      <c r="I54" s="2">
+        <v>1</v>
+      </c>
+      <c r="J54" s="15">
+        <v>10020</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B55" s="8">
+        <v>10101051</v>
+      </c>
+      <c r="C55" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="D55" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="E55" s="9">
+        <v>2</v>
+      </c>
+      <c r="F55" s="9">
+        <v>1</v>
+      </c>
+      <c r="G55" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="H55" s="15"/>
+      <c r="I55" s="2">
+        <v>1</v>
+      </c>
+      <c r="J55" s="15">
+        <v>10021</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B56" s="8">
+        <v>10101052</v>
+      </c>
+      <c r="C56" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="D56" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="E56" s="9">
+        <v>2</v>
+      </c>
+      <c r="F56" s="9">
+        <v>1</v>
+      </c>
+      <c r="G56" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="H56" s="15"/>
+      <c r="I56" s="2">
+        <v>1</v>
+      </c>
+      <c r="J56" s="15">
+        <v>10021</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B57" s="8">
+        <v>10101053</v>
+      </c>
+      <c r="C57" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="D57" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="E57" s="9">
+        <v>2</v>
+      </c>
+      <c r="F57" s="9">
+        <v>1</v>
+      </c>
+      <c r="G57" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="H57" s="15"/>
+      <c r="I57" s="2">
+        <v>1</v>
+      </c>
+      <c r="J57" s="15">
+        <v>10021</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B58" s="8">
+        <v>10101054</v>
+      </c>
+      <c r="C58" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="D58" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="E58" s="9">
+        <v>2</v>
+      </c>
+      <c r="F58" s="9">
+        <v>1</v>
+      </c>
+      <c r="G58" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="H58" s="15"/>
+      <c r="I58" s="2">
+        <v>1</v>
+      </c>
+      <c r="J58" s="15">
+        <v>10021</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="B33">
+  <conditionalFormatting sqref="B4:B32 B35 B38 B41 B44 B47 B50 B53 B56">
+    <cfRule type="duplicateValues" dxfId="0" priority="26" stopIfTrue="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B33 B36 B39 B42 B45 B48 B51 B54 B57">
     <cfRule type="duplicateValues" dxfId="0" priority="2" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B34">
+  <conditionalFormatting sqref="B34 B37 B40 B43 B46 B49 B52 B55 B58">
     <cfRule type="duplicateValues" dxfId="0" priority="1" stopIfTrue="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B4:B32">
-    <cfRule type="duplicateValues" dxfId="0" priority="26" stopIfTrue="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
